--- a/po_analysis_by_asin/B0CPW1F841_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPW1F841_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>180</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>48</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>132</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>72</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>156</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>16</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>36</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>52</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>16</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>48</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>48</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>88</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>120</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>8</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>16</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>8</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>8</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>8</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>16</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>48</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>48</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>24</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>80</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>64</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>8</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>24</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>40</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>40</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>8</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>372</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>240</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>104</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>192</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>144</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>120</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>176</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>112</v>

--- a/po_analysis_by_asin/B0CPW1F841_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPW1F841_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -733,7 +734,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -815,6 +816,607 @@
       </c>
       <c r="B11" t="n">
         <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>76</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25.48247646433178</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.8910763593615</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.18912203980951</v>
+      </c>
+      <c r="D3" t="n">
+        <v>126.6978431833387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>74</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.51843648222154</v>
+      </c>
+      <c r="D4" t="n">
+        <v>122.8670395250111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19.72771582953012</v>
+      </c>
+      <c r="D5" t="n">
+        <v>125.1754890777817</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>68</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.91141812573505</v>
+      </c>
+      <c r="D6" t="n">
+        <v>119.4016146033349</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>67</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.60622590519688</v>
+      </c>
+      <c r="D7" t="n">
+        <v>119.0117822357901</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>66</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.83091834862257</v>
+      </c>
+      <c r="D8" t="n">
+        <v>118.4258978608859</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>63</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.219632921571003</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.1253776110131</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>62</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.664660441445772</v>
+      </c>
+      <c r="D10" t="n">
+        <v>115.0661050518691</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.19266483395189</v>
+      </c>
+      <c r="D11" t="n">
+        <v>111.5751251402444</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.61028087013815</v>
+      </c>
+      <c r="D12" t="n">
+        <v>110.5781168488856</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>54</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.231860368505822</v>
+      </c>
+      <c r="D13" t="n">
+        <v>104.2429130478735</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>53</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9014568875121129</v>
+      </c>
+      <c r="D14" t="n">
+        <v>107.0611034834778</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>51</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.346076095389446</v>
+      </c>
+      <c r="D15" t="n">
+        <v>104.5292568076603</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.848859019852029</v>
+      </c>
+      <c r="D16" t="n">
+        <v>100.7900127513933</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>47</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-4.731608790128378</v>
+      </c>
+      <c r="D17" t="n">
+        <v>104.0122278782882</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>45</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-13.23221591873498</v>
+      </c>
+      <c r="D18" t="n">
+        <v>98.46887136755896</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>43</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-12.0837724398032</v>
+      </c>
+      <c r="D19" t="n">
+        <v>96.01243637368039</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>39</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-15.81026262742467</v>
+      </c>
+      <c r="D20" t="n">
+        <v>90.54824233061497</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>37</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-17.68967060081302</v>
+      </c>
+      <c r="D21" t="n">
+        <v>89.46788692744225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>35</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-18.10630374280814</v>
+      </c>
+      <c r="D22" t="n">
+        <v>90.47804300436731</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-12.80665731079499</v>
+      </c>
+      <c r="D23" t="n">
+        <v>83.37566376680283</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>33</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-20.27762308029343</v>
+      </c>
+      <c r="D24" t="n">
+        <v>83.16093221108983</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-21.13314314366059</v>
+      </c>
+      <c r="D25" t="n">
+        <v>81.70804569393398</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-20.70072558778118</v>
+      </c>
+      <c r="D26" t="n">
+        <v>82.28130341594672</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>29</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-24.13200144414039</v>
+      </c>
+      <c r="D27" t="n">
+        <v>78.28125518741582</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-25.66326870469888</v>
+      </c>
+      <c r="D28" t="n">
+        <v>84.56913201923048</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-29.31862581591865</v>
+      </c>
+      <c r="D29" t="n">
+        <v>79.42200651380045</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-27.67098447716745</v>
+      </c>
+      <c r="D30" t="n">
+        <v>77.19374414690022</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-29.23034602616552</v>
+      </c>
+      <c r="D31" t="n">
+        <v>71.37090640334918</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>21</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-31.68455451743926</v>
+      </c>
+      <c r="D32" t="n">
+        <v>73.9201533832731</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-29.32708525012992</v>
+      </c>
+      <c r="D33" t="n">
+        <v>73.19003326138481</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>18</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-37.08152257014945</v>
+      </c>
+      <c r="D34" t="n">
+        <v>70.5026735473494</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-37.82135944421326</v>
+      </c>
+      <c r="D35" t="n">
+        <v>68.41352151550993</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-36.5094444720025</v>
+      </c>
+      <c r="D36" t="n">
+        <v>70.138109104474</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-39.75675596213006</v>
+      </c>
+      <c r="D37" t="n">
+        <v>67.04333447392159</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>13</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-37.9857576371945</v>
+      </c>
+      <c r="D38" t="n">
+        <v>65.86238130665437</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-40.67424950694421</v>
+      </c>
+      <c r="D39" t="n">
+        <v>65.15285175528565</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-40.01072762862336</v>
+      </c>
+      <c r="D40" t="n">
+        <v>63.86812182287215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-46.1692383626399</v>
+      </c>
+      <c r="D41" t="n">
+        <v>55.67068384812487</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CPW1F841_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPW1F841_po_data.xlsx
@@ -829,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,16 +848,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -866,12 +856,6 @@
       <c r="B2" t="n">
         <v>76</v>
       </c>
-      <c r="C2" t="n">
-        <v>25.48247646433178</v>
-      </c>
-      <c r="D2" t="n">
-        <v>126.8910763593615</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -880,12 +864,6 @@
       <c r="B3" t="n">
         <v>75</v>
       </c>
-      <c r="C3" t="n">
-        <v>23.18912203980951</v>
-      </c>
-      <c r="D3" t="n">
-        <v>126.6978431833387</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -894,12 +872,6 @@
       <c r="B4" t="n">
         <v>74</v>
       </c>
-      <c r="C4" t="n">
-        <v>17.51843648222154</v>
-      </c>
-      <c r="D4" t="n">
-        <v>122.8670395250111</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -908,12 +880,6 @@
       <c r="B5" t="n">
         <v>71</v>
       </c>
-      <c r="C5" t="n">
-        <v>19.72771582953012</v>
-      </c>
-      <c r="D5" t="n">
-        <v>125.1754890777817</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -922,12 +888,6 @@
       <c r="B6" t="n">
         <v>68</v>
       </c>
-      <c r="C6" t="n">
-        <v>15.91141812573505</v>
-      </c>
-      <c r="D6" t="n">
-        <v>119.4016146033349</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -936,12 +896,6 @@
       <c r="B7" t="n">
         <v>67</v>
       </c>
-      <c r="C7" t="n">
-        <v>17.60622590519688</v>
-      </c>
-      <c r="D7" t="n">
-        <v>119.0117822357901</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -950,12 +904,6 @@
       <c r="B8" t="n">
         <v>66</v>
       </c>
-      <c r="C8" t="n">
-        <v>10.83091834862257</v>
-      </c>
-      <c r="D8" t="n">
-        <v>118.4258978608859</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -964,12 +912,6 @@
       <c r="B9" t="n">
         <v>63</v>
       </c>
-      <c r="C9" t="n">
-        <v>7.219632921571003</v>
-      </c>
-      <c r="D9" t="n">
-        <v>114.1253776110131</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -978,12 +920,6 @@
       <c r="B10" t="n">
         <v>62</v>
       </c>
-      <c r="C10" t="n">
-        <v>9.664660441445772</v>
-      </c>
-      <c r="D10" t="n">
-        <v>115.0661050518691</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -992,12 +928,6 @@
       <c r="B11" t="n">
         <v>60</v>
       </c>
-      <c r="C11" t="n">
-        <v>10.19266483395189</v>
-      </c>
-      <c r="D11" t="n">
-        <v>111.5751251402444</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1006,12 +936,6 @@
       <c r="B12" t="n">
         <v>59</v>
       </c>
-      <c r="C12" t="n">
-        <v>10.61028087013815</v>
-      </c>
-      <c r="D12" t="n">
-        <v>110.5781168488856</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1020,12 +944,6 @@
       <c r="B13" t="n">
         <v>54</v>
       </c>
-      <c r="C13" t="n">
-        <v>4.231860368505822</v>
-      </c>
-      <c r="D13" t="n">
-        <v>104.2429130478735</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1034,12 +952,6 @@
       <c r="B14" t="n">
         <v>53</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.9014568875121129</v>
-      </c>
-      <c r="D14" t="n">
-        <v>107.0611034834778</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1048,12 +960,6 @@
       <c r="B15" t="n">
         <v>51</v>
       </c>
-      <c r="C15" t="n">
-        <v>-3.346076095389446</v>
-      </c>
-      <c r="D15" t="n">
-        <v>104.5292568076603</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1062,12 +968,6 @@
       <c r="B16" t="n">
         <v>50</v>
       </c>
-      <c r="C16" t="n">
-        <v>-3.848859019852029</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100.7900127513933</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1076,12 +976,6 @@
       <c r="B17" t="n">
         <v>47</v>
       </c>
-      <c r="C17" t="n">
-        <v>-4.731608790128378</v>
-      </c>
-      <c r="D17" t="n">
-        <v>104.0122278782882</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1090,12 +984,6 @@
       <c r="B18" t="n">
         <v>45</v>
       </c>
-      <c r="C18" t="n">
-        <v>-13.23221591873498</v>
-      </c>
-      <c r="D18" t="n">
-        <v>98.46887136755896</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1104,12 +992,6 @@
       <c r="B19" t="n">
         <v>43</v>
       </c>
-      <c r="C19" t="n">
-        <v>-12.0837724398032</v>
-      </c>
-      <c r="D19" t="n">
-        <v>96.01243637368039</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1118,12 +1000,6 @@
       <c r="B20" t="n">
         <v>39</v>
       </c>
-      <c r="C20" t="n">
-        <v>-15.81026262742467</v>
-      </c>
-      <c r="D20" t="n">
-        <v>90.54824233061497</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1132,12 +1008,6 @@
       <c r="B21" t="n">
         <v>37</v>
       </c>
-      <c r="C21" t="n">
-        <v>-17.68967060081302</v>
-      </c>
-      <c r="D21" t="n">
-        <v>89.46788692744225</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1146,12 +1016,6 @@
       <c r="B22" t="n">
         <v>35</v>
       </c>
-      <c r="C22" t="n">
-        <v>-18.10630374280814</v>
-      </c>
-      <c r="D22" t="n">
-        <v>90.47804300436731</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1160,12 +1024,6 @@
       <c r="B23" t="n">
         <v>34</v>
       </c>
-      <c r="C23" t="n">
-        <v>-12.80665731079499</v>
-      </c>
-      <c r="D23" t="n">
-        <v>83.37566376680283</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1174,12 +1032,6 @@
       <c r="B24" t="n">
         <v>33</v>
       </c>
-      <c r="C24" t="n">
-        <v>-20.27762308029343</v>
-      </c>
-      <c r="D24" t="n">
-        <v>83.16093221108983</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1188,12 +1040,6 @@
       <c r="B25" t="n">
         <v>31</v>
       </c>
-      <c r="C25" t="n">
-        <v>-21.13314314366059</v>
-      </c>
-      <c r="D25" t="n">
-        <v>81.70804569393398</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1202,12 +1048,6 @@
       <c r="B26" t="n">
         <v>30</v>
       </c>
-      <c r="C26" t="n">
-        <v>-20.70072558778118</v>
-      </c>
-      <c r="D26" t="n">
-        <v>82.28130341594672</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1216,12 +1056,6 @@
       <c r="B27" t="n">
         <v>29</v>
       </c>
-      <c r="C27" t="n">
-        <v>-24.13200144414039</v>
-      </c>
-      <c r="D27" t="n">
-        <v>78.28125518741582</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1230,12 +1064,6 @@
       <c r="B28" t="n">
         <v>27</v>
       </c>
-      <c r="C28" t="n">
-        <v>-25.66326870469888</v>
-      </c>
-      <c r="D28" t="n">
-        <v>84.56913201923048</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1244,12 +1072,6 @@
       <c r="B29" t="n">
         <v>26</v>
       </c>
-      <c r="C29" t="n">
-        <v>-29.31862581591865</v>
-      </c>
-      <c r="D29" t="n">
-        <v>79.42200651380045</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1258,12 +1080,6 @@
       <c r="B30" t="n">
         <v>25</v>
       </c>
-      <c r="C30" t="n">
-        <v>-27.67098447716745</v>
-      </c>
-      <c r="D30" t="n">
-        <v>77.19374414690022</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1272,12 +1088,6 @@
       <c r="B31" t="n">
         <v>22</v>
       </c>
-      <c r="C31" t="n">
-        <v>-29.23034602616552</v>
-      </c>
-      <c r="D31" t="n">
-        <v>71.37090640334918</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1286,12 +1096,6 @@
       <c r="B32" t="n">
         <v>21</v>
       </c>
-      <c r="C32" t="n">
-        <v>-31.68455451743926</v>
-      </c>
-      <c r="D32" t="n">
-        <v>73.9201533832731</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1300,12 +1104,6 @@
       <c r="B33" t="n">
         <v>20</v>
       </c>
-      <c r="C33" t="n">
-        <v>-29.32708525012992</v>
-      </c>
-      <c r="D33" t="n">
-        <v>73.19003326138481</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1314,12 +1112,6 @@
       <c r="B34" t="n">
         <v>18</v>
       </c>
-      <c r="C34" t="n">
-        <v>-37.08152257014945</v>
-      </c>
-      <c r="D34" t="n">
-        <v>70.5026735473494</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1328,12 +1120,6 @@
       <c r="B35" t="n">
         <v>17</v>
       </c>
-      <c r="C35" t="n">
-        <v>-37.82135944421326</v>
-      </c>
-      <c r="D35" t="n">
-        <v>68.41352151550993</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1342,12 +1128,6 @@
       <c r="B36" t="n">
         <v>16</v>
       </c>
-      <c r="C36" t="n">
-        <v>-36.5094444720025</v>
-      </c>
-      <c r="D36" t="n">
-        <v>70.138109104474</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1356,12 +1136,6 @@
       <c r="B37" t="n">
         <v>14</v>
       </c>
-      <c r="C37" t="n">
-        <v>-39.75675596213006</v>
-      </c>
-      <c r="D37" t="n">
-        <v>67.04333447392159</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1370,12 +1144,6 @@
       <c r="B38" t="n">
         <v>13</v>
       </c>
-      <c r="C38" t="n">
-        <v>-37.9857576371945</v>
-      </c>
-      <c r="D38" t="n">
-        <v>65.86238130665437</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1384,12 +1152,6 @@
       <c r="B39" t="n">
         <v>12</v>
       </c>
-      <c r="C39" t="n">
-        <v>-40.67424950694421</v>
-      </c>
-      <c r="D39" t="n">
-        <v>65.15285175528565</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1398,12 +1160,6 @@
       <c r="B40" t="n">
         <v>10</v>
       </c>
-      <c r="C40" t="n">
-        <v>-40.01072762862336</v>
-      </c>
-      <c r="D40" t="n">
-        <v>63.86812182287215</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1411,12 +1167,6 @@
       </c>
       <c r="B41" t="n">
         <v>9</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-46.1692383626399</v>
-      </c>
-      <c r="D41" t="n">
-        <v>55.67068384812487</v>
       </c>
     </row>
   </sheetData>
